--- a/outputs-r202/g__WRAD01.xlsx
+++ b/outputs-r202/g__WRAD01.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>s__WRAD01 sp009780065</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>s__WRAD01 sp009780065(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>s__WRAD01 sp009780065</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>s__WRAD01 sp009780065(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -563,6 +578,11 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>s__WRAD01 sp009780065</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>s__WRAD01 sp009780065(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/g__WRAD01.xlsx
+++ b/outputs-r202/g__WRAD01.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,76 +516,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>RUG585.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.4999999999999001</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.661338147749084e-14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.661338147749084e-14</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.4999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.661338147749083e-14</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4999999999999001</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>s__WRAD01 sp009780065</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>s__WRAD01 sp009780065(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG774.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.4999999999999001</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.661338147749084e-14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.661338147749084e-14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4999999999999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6.661338147749083e-14</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.4999999999999001</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>s__WRAD01 sp009780065</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>s__WRAD01 sp009780065(reject)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
